--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKSPACE\AI-Powered Apps Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A128497D-DC0D-485A-94FF-954CE413FEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2BCEE8-5FD3-4EEA-A50D-7A08C2228C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1580" windowWidth="28800" windowHeight="15830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Câu trả lời biểu mẫu 1" sheetId="1" r:id="rId1"/>
@@ -1454,15 +1454,15 @@
       <selection pane="bottomLeft" activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="46.08984375" customWidth="1"/>
+    <col min="1" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="21" width="18.81640625" customWidth="1"/>
+    <col min="7" max="21" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45312.772721226851</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45312.789072962958</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45312.789374444445</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45312.791114629625</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45312.796527407409</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45312.798779756944</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45312.799554398152</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45312.800736006946</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45312.801439201387</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45312.801663645834</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45312.802414351856</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45312.803738587958</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45312.803847291667</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45312.804920810187</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45312.806010983797</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45312.806360659721</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45312.806645671299</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45312.806658333335</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45312.808883055557</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45312.810292870374</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45312.81308482639</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45312.813107719907</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45312.815218425923</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45312.817320995367</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45312.820977465279</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45312.821421875</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45312.821885694444</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45312.822108611115</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45312.822631423609</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45312.822709050924</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45312.82281769676</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45312.823589074076</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45312.823828194443</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45312.823901620373</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45312.82403314815</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45312.824881817127</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45312.830085844907</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45312.830603344904</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45312.830751099536</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45312.832335439816</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45312.832411180556</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45312.833751238424</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45312.835127291663</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45312.835838009254</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45312.837756493056</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45312.839211087965</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45312.839687997686</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45312.840459652776</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45312.840729965275</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45312.841031458331</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45312.841102384264</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45312.841361284722</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45312.843237256944</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45312.844477812498</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45312.845031377314</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45312.845886608797</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45312.84595412037</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45312.846401828705</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45312.846481898145</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45312.8465043287</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45312.847693842588</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45312.848048483793</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45312.848871770839</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45312.849147303241</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45312.849683460649</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45312.85140255787</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45312.851928506949</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45312.853853622684</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45312.853946979165</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45312.854605578701</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45312.855370138888</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45312.855382511574</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45312.856291273143</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45312.857479803242</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45312.858906597219</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45312.859790532406</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45312.859934120366</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45312.860119004632</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45312.861247094908</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45312.862710046291</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45312.863874224538</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45312.864164224535</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45312.864467708336</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45312.864780567128</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45312.866271921295</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45312.866725474538</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45312.867161030095</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45312.867882025464</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45312.868130567134</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45312.868445277782</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45312.86915460648</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45312.871887488422</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45312.872771932874</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45312.873087256943</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45312.874045844903</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45312.87562875</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45312.875826215277</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45312.876865682869</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45312.876968912038</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45312.877108356479</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45312.877980694444</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45312.878665162032</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45312.880240960643</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45312.881075520832</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45312.881277476852</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45312.883148645837</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45312.883214768517</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45312.886664606485</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45312.886903564809</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45312.89061224537</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45312.891425972222</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45312.893389907404</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45312.901952141205</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45312.903032071757</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45312.903453969906</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45312.910264398146</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45312.924420196759</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45312.924515775463</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45312.926008472219</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45312.933130057871</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45312.942518807875</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45312.950033368055</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45312.953188171297</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45312.955659606479</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45312.959464965279</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45312.960059618053</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45312.961237476848</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45312.961560995369</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45312.96246141204</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45312.963286550927</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45312.966683067134</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45312.973316932868</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45312.973597870368</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45312.976865486111</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45312.979791423611</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45312.983400717596</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45312.986141597226</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45312.997454050928</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45313.011889664354</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45313.020713206017</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45313.022250972223</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45313.047471053243</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45313.072949791662</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45313.084594699074</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45313.315864351855</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45313.317531770837</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45313.319436793987</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>45313.334127511574</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>45313.366676180551</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>45313.375159861112</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>45313.39029087963</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>45313.392098136574</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>45313.411478854163</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>45313.415650486109</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>45313.432768761573</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>45313.559964259257</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>45313.617305370368</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>45313.623559050931</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>45313.637871979168</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>45313.736323101853</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>45313.75007840278</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>45313.791848726847</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>45313.867145034717</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>45313.886835509256</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>45313.902558148147</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>45314.851008483798</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>45314.922447407407</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>45315.429066018522</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F173" s="4" t="s">
         <v>367</v>
       </c>
@@ -8969,18 +8969,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="18.81640625" customWidth="1"/>
-    <col min="5" max="5" width="46.08984375" customWidth="1"/>
+    <col min="1" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="21" width="18.81640625" customWidth="1"/>
+    <col min="7" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="255.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="202.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9027,7 +9031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45312.772721226851</v>
       </c>
@@ -9074,7 +9078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45312.789072962958</v>
       </c>
@@ -9118,7 +9122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45312.789374444445</v>
       </c>
@@ -9165,7 +9169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45312.791114629625</v>
       </c>
@@ -9212,7 +9216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45312.796527407409</v>
       </c>
@@ -9256,7 +9260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45312.798779756944</v>
       </c>
@@ -9300,7 +9304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45312.800736006946</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45312.801439201387</v>
       </c>
@@ -9388,7 +9392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45312.802414351856</v>
       </c>
@@ -9435,7 +9439,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45312.803738587958</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45312.803847291667</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45312.804920810187</v>
       </c>
@@ -9573,7 +9577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45312.806010983797</v>
       </c>
@@ -9617,7 +9621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45312.806360659721</v>
       </c>
@@ -9658,7 +9662,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45312.806645671299</v>
       </c>
@@ -9705,7 +9709,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45312.806658333335</v>
       </c>
@@ -9746,7 +9750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45312.808883055557</v>
       </c>
@@ -9787,7 +9791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45312.810292870374</v>
       </c>
@@ -9831,7 +9835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45312.81308482639</v>
       </c>
@@ -9875,7 +9879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45312.813107719907</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45312.815218425923</v>
       </c>
@@ -9957,7 +9961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45312.817320995367</v>
       </c>
@@ -10001,7 +10005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45312.820977465279</v>
       </c>
@@ -10048,7 +10052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45312.821421875</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45312.821885694444</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45312.822108611115</v>
       </c>
@@ -10177,7 +10181,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45312.822631423609</v>
       </c>
@@ -10221,7 +10225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45312.822709050924</v>
       </c>
@@ -10265,7 +10269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45312.82281769676</v>
       </c>
@@ -10309,7 +10313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45312.823589074076</v>
       </c>
@@ -10356,7 +10360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45312.823828194443</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45312.823901620373</v>
       </c>
@@ -10450,7 +10454,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45312.82403314815</v>
       </c>
@@ -10497,7 +10501,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45312.824881817127</v>
       </c>
@@ -10541,7 +10545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45312.830085844907</v>
       </c>
@@ -10585,7 +10589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>45312.830603344904</v>
       </c>
@@ -10629,7 +10633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>45312.830751099536</v>
       </c>
@@ -10670,7 +10674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>45312.832335439816</v>
       </c>
@@ -10714,7 +10718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>45312.832411180556</v>
       </c>
@@ -10758,7 +10762,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>45312.833751238424</v>
       </c>
@@ -10799,7 +10803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45312.835127291663</v>
       </c>
@@ -10843,7 +10847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>45312.835838009254</v>
       </c>
@@ -10887,7 +10891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45312.837756493056</v>
       </c>
@@ -10928,7 +10932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45312.839211087965</v>
       </c>
@@ -10972,7 +10976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45312.840459652776</v>
       </c>
@@ -11016,7 +11020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45312.840729965275</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45312.841031458331</v>
       </c>
@@ -11101,7 +11105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>45312.841102384264</v>
       </c>
@@ -11145,7 +11149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45312.841361284722</v>
       </c>
@@ -11192,7 +11196,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45312.843237256944</v>
       </c>
@@ -11236,7 +11240,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>45312.844477812498</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45312.845031377314</v>
       </c>
@@ -11324,7 +11328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45312.845886608797</v>
       </c>
@@ -11371,7 +11375,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>45312.84595412037</v>
       </c>
@@ -11418,7 +11422,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45312.846401828705</v>
       </c>
@@ -11459,7 +11463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45312.846481898145</v>
       </c>
@@ -11503,7 +11507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>45312.8465043287</v>
       </c>
@@ -11547,7 +11551,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45312.847693842588</v>
       </c>
@@ -11594,7 +11598,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45312.848048483793</v>
       </c>
@@ -11638,7 +11642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>45312.848871770839</v>
       </c>
@@ -11682,7 +11686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45312.849147303241</v>
       </c>
@@ -11726,7 +11730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45312.849683460649</v>
       </c>
@@ -11770,7 +11774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>45312.85140255787</v>
       </c>
@@ -11814,7 +11818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45312.851928506949</v>
       </c>
@@ -11858,7 +11862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45312.853853622684</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>45312.853946979165</v>
       </c>
@@ -11940,7 +11944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45312.854605578701</v>
       </c>
@@ -11987,7 +11991,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45312.855370138888</v>
       </c>
@@ -12031,7 +12035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>45312.855382511574</v>
       </c>
@@ -12075,7 +12079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45312.856291273143</v>
       </c>
@@ -12119,7 +12123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45312.857479803242</v>
       </c>
@@ -12166,7 +12170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>45312.858906597219</v>
       </c>
@@ -12210,7 +12214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45312.859790532406</v>
       </c>
@@ -12254,7 +12258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45312.859934120366</v>
       </c>
@@ -12298,7 +12302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>45312.860119004632</v>
       </c>
@@ -12342,7 +12346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45312.861247094908</v>
       </c>
@@ -12386,7 +12390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45312.862710046291</v>
       </c>
@@ -12430,7 +12434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>45312.863874224538</v>
       </c>
@@ -12474,7 +12478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45312.864164224535</v>
       </c>
@@ -12521,7 +12525,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45312.864467708336</v>
       </c>
@@ -12565,7 +12569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>45312.864780567128</v>
       </c>
@@ -12606,7 +12610,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45312.866271921295</v>
       </c>
@@ -12650,7 +12654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45312.866725474538</v>
       </c>
@@ -12697,7 +12701,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>45312.867161030095</v>
       </c>
@@ -12741,7 +12745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45312.867882025464</v>
       </c>
@@ -12788,7 +12792,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45312.868130567134</v>
       </c>
@@ -12829,7 +12833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>45312.868445277782</v>
       </c>
@@ -12873,7 +12877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45312.86915460648</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45312.871887488422</v>
       </c>
@@ -12961,7 +12965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45312.872771932874</v>
       </c>
@@ -13008,7 +13012,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45312.873087256943</v>
       </c>
@@ -13052,7 +13056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45312.874045844903</v>
       </c>
@@ -13096,7 +13100,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>45312.87562875</v>
       </c>
@@ -13143,7 +13147,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45312.875826215277</v>
       </c>
@@ -13187,7 +13191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>45312.876865682869</v>
       </c>
@@ -13234,7 +13238,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45312.876968912038</v>
       </c>
@@ -13278,7 +13282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>45312.877108356479</v>
       </c>
@@ -13322,7 +13326,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>45312.877980694444</v>
       </c>
@@ -13369,7 +13373,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>45312.878665162032</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>45312.880240960643</v>
       </c>
@@ -13460,7 +13464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>45312.881075520832</v>
       </c>
@@ -13504,7 +13508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>45312.881277476852</v>
       </c>
@@ -13551,7 +13555,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>45312.883148645837</v>
       </c>
@@ -13595,7 +13599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>45312.883214768517</v>
       </c>
@@ -13639,7 +13643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>45312.886664606485</v>
       </c>
@@ -13677,7 +13681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>45312.886903564809</v>
       </c>
@@ -13724,7 +13728,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>45312.89061224537</v>
       </c>
@@ -13768,7 +13772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>45312.891425972222</v>
       </c>
@@ -13812,7 +13816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>45312.893389907404</v>
       </c>
@@ -13856,7 +13860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>45312.901952141205</v>
       </c>
@@ -13900,7 +13904,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>45312.903032071757</v>
       </c>
@@ -13944,7 +13948,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>45312.903453969906</v>
       </c>
@@ -13991,7 +13995,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>45312.910264398146</v>
       </c>
@@ -14032,7 +14036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>45312.924420196759</v>
       </c>
@@ -14076,7 +14080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>45312.924515775463</v>
       </c>
@@ -14123,7 +14127,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>45312.926008472219</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>45312.933130057871</v>
       </c>
@@ -14214,7 +14218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>45312.942518807875</v>
       </c>
@@ -14258,7 +14262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>45312.950033368055</v>
       </c>
@@ -14302,7 +14306,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>45312.953188171297</v>
       </c>
@@ -14343,7 +14347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>45312.955659606479</v>
       </c>
@@ -14387,7 +14391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>45312.959464965279</v>
       </c>
@@ -14434,7 +14438,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>45312.960059618053</v>
       </c>
@@ -14478,7 +14482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>45312.961237476848</v>
       </c>
@@ -14522,7 +14526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>45312.961560995369</v>
       </c>
@@ -14566,7 +14570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>45312.96246141204</v>
       </c>
@@ -14610,7 +14614,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>45312.963286550927</v>
       </c>
@@ -14654,7 +14658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>45312.966683067134</v>
       </c>
@@ -14698,7 +14702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>45312.973316932868</v>
       </c>
@@ -14739,7 +14743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>45312.973597870368</v>
       </c>
@@ -14780,7 +14784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>45312.976865486111</v>
       </c>
@@ -14827,7 +14831,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>45312.979791423611</v>
       </c>
@@ -14871,7 +14875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>45312.983400717596</v>
       </c>
@@ -14912,7 +14916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>45312.986141597226</v>
       </c>
@@ -14956,7 +14960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>45312.997454050928</v>
       </c>
@@ -15000,7 +15004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>45313.011889664354</v>
       </c>
@@ -15047,7 +15051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>45313.020713206017</v>
       </c>
@@ -15091,7 +15095,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>45313.022250972223</v>
       </c>
@@ -15138,7 +15142,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>45313.047471053243</v>
       </c>
@@ -15182,7 +15186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>45313.072949791662</v>
       </c>
@@ -15226,7 +15230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>45313.084594699074</v>
       </c>
@@ -15270,7 +15274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>45313.315864351855</v>
       </c>
@@ -15311,7 +15315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>45313.317531770837</v>
       </c>
@@ -15355,7 +15359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>45313.319436793987</v>
       </c>
@@ -15402,7 +15406,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>45313.334127511574</v>
       </c>
@@ -15449,7 +15453,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>45313.366676180551</v>
       </c>
@@ -15493,7 +15497,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>45313.375159861112</v>
       </c>
@@ -15537,7 +15541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>45313.39029087963</v>
       </c>
@@ -15581,7 +15585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>45313.392098136574</v>
       </c>
@@ -15625,7 +15629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>45313.411478854163</v>
       </c>
@@ -15666,7 +15670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>45313.415650486109</v>
       </c>
@@ -15710,7 +15714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>45313.432768761573</v>
       </c>
@@ -15754,7 +15758,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>45313.559964259257</v>
       </c>
@@ -15801,7 +15805,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>45313.617305370368</v>
       </c>
@@ -15842,7 +15846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>45313.623559050931</v>
       </c>
@@ -15889,7 +15893,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>45313.637871979168</v>
       </c>
@@ -15933,7 +15937,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>45313.736323101853</v>
       </c>
@@ -15974,7 +15978,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>45313.75007840278</v>
       </c>
@@ -16021,7 +16025,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>45313.791848726847</v>
       </c>
@@ -16059,7 +16063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>45313.867145034717</v>
       </c>
@@ -16106,7 +16110,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>45313.886835509256</v>
       </c>
@@ -16147,7 +16151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>45313.902558148147</v>
       </c>
@@ -16191,7 +16195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>45314.851008483798</v>
       </c>
@@ -16238,7 +16242,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>45314.922447407407</v>
       </c>
@@ -16279,7 +16283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>45315.429066018522</v>
       </c>
